--- a/biology/Zoologie/Cartea/Cartea.xlsx
+++ b/biology/Zoologie/Cartea/Cartea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cartea est un genre de lépidoptères (papillons) sud-américains de la famille des Riodinidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1862 sous le nom d'Orestias par les entomologistes autrichiens C. &amp; R. Felder, avec pour espèce type Limnas vitula Hewitson, 1853[1],[2].
-Le nom Orestias s'avérant préoccupé par le genre de poissons Orestias Valenciennes, 1839[2], l'entomologiste britannique William Forsell Kirby a introduit en 1871 un nomen novum : Cartea[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1862 sous le nom d'Orestias par les entomologistes autrichiens C. &amp; R. Felder, avec pour espèce type Limnas vitula Hewitson, 1853,.
+Le nom Orestias s'avérant préoccupé par le genre de poissons Orestias Valenciennes, 1839, l'entomologiste britannique William Forsell Kirby a introduit en 1871 un nomen novum : Cartea.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre comporte trois espèces[4] :
-Cartea vitula (Hewitson, 1853) — présent au Brésil (Pará et Amazonas)[2],[5].
-Cartea ucayala Thieme, 1907 — présent au Pérou[2],[5].
-Cartea chiribiquetensis Salazar &amp; Constantino, 2007 — présent en Colombie[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce genre comporte trois espèces :
+Cartea vitula (Hewitson, 1853) — présent au Brésil (Pará et Amazonas),.
+Cartea ucayala Thieme, 1907 — présent au Pérou,.
+Cartea chiribiquetensis Salazar &amp; Constantino, 2007 — présent en Colombie.</t>
         </is>
       </c>
     </row>
